--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3872457.57494161</v>
+        <v>3868361.933436846</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>304.4852009980677</v>
       </c>
       <c r="C2" t="n">
-        <v>137.5407755431147</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>120.3332554667406</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>35.33415019398285</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>246.6994950393312</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.6260260776701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>116.3777338082382</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>103.2588014327192</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.41653174045834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>104.9704522421267</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>210.6180377869401</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>86.09789039964346</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>124.8808320771212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.07147829118306</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187872</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.88270281562068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
-        <v>173.4756821528525</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>139.9371893537537</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>53.11937003878008</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.93450140722141</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>100.781511665774</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.579726596859359</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.524138292269</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>149.3431529631686</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>185.7223172888121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.1685137621089</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1323.273454230226</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.01262627016</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.01262627016</v>
+        <v>1545.062936918767</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.01262627016</v>
+        <v>1171.597178657687</v>
       </c>
       <c r="Y2" t="n">
-        <v>1709.873294294348</v>
+        <v>781.457846681875</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L3" t="n">
-        <v>662.3527266874014</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.614745646621</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800311</v>
+        <v>1098.688737789359</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>2273.220990903994</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>2018.536502698107</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1729.119332661146</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1501.129781763129</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800311</v>
+        <v>1280.337202619599</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>844.329830759459</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>1467.14239792855</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>1108.8766993218</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>723.0884467235553</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>312.1025419339477</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>300.4381956986407</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>1457.824646659611</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y5" t="n">
-        <v>1230.929670823581</v>
+        <v>1836.104914868962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458916</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>572.6849327063065</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>572.6849327063065</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>422.5682932939708</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>274.6551997115777</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.467062747854</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>793.4775118498367</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>572.6849327063065</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>163.837793613838</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -4992,22 +4992,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1731.433331005489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1731.433331005489</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1476.748842799602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1187.331672762641</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X10" t="n">
-        <v>959.3421218646239</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y10" t="n">
-        <v>959.3421218646239</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="11">
@@ -5026,40 +5026,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
@@ -5071,19 +5071,19 @@
         <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>842.6091804069459</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>699.3858046984096</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>551.4727111160165</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>404.5827636181061</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.318825887154</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="14">
@@ -5257,13 +5257,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>614.6217844681063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3091.514342801867</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801867</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389532</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807138</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024108</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4265.704652535343</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3976.629425879541</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3721.944937673655</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3721.944937673655</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3493.955386775637</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3273.162807632107</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2770.435951460738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2620.319312048402</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2566.663382716301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2419.773435218391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129204</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755756</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711125</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950412</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3113.560578231862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2944.624395303955</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2794.50775589162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,64 +7159,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913445</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913445</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129204</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M39" t="n">
-        <v>3473.939263755756</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711978</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888046</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908941</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7347,37 +7347,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2229.065710172895</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2009.464245195836</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2009.464245195836</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1754.779756989949</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1465.362586952989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1237.373036054971</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1016.580456911441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711978</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888046</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908941</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,13 +7569,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7584,37 +7584,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2009.464245195836</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.464245195836</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1754.779756989949</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.373036054971</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.580456911441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>94.56320294380259</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.53722908186</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4515.536424648865</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4295.934959671807</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4006.859733016004</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3752.175244810117</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3752.175244810117</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3524.185693912099</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
-        <v>70.03064962107908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L6" t="n">
-        <v>15.64270034434941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>79.42624789262538</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.3036423121229</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.76050189075424</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8269525734165</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
-        <v>43.92976817443579</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>85.77246603528343</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>93.31459260778908</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>202.6501519448734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>45.65245098079514</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.2522535850779</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>31.68313303847617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>31.68313303847631</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.85777223953586</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633467.8863049148</v>
+        <v>633467.886304915</v>
       </c>
     </row>
     <row r="6">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176766</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977555</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.614506921984932e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.654985877547668e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819081</v>
+        <v>48293.9700081906</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551191</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.588249117252417e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,19 +26423,19 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744231</v>
+        <v>8727.256391744197</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744264</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744231</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744282</v>
@@ -26444,22 +26444,22 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744335</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744344</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744144</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744235</v>
-      </c>
       <c r="P4" t="n">
-        <v>8727.256391744237</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542695.9673750711</v>
+        <v>-542695.9673750713</v>
       </c>
       <c r="C6" t="n">
-        <v>572055.8162008486</v>
+        <v>572055.8162008489</v>
       </c>
       <c r="D6" t="n">
-        <v>412040.3534528489</v>
+        <v>412040.3534528492</v>
       </c>
       <c r="E6" t="n">
-        <v>351705.6866747491</v>
+        <v>351358.3074203922</v>
       </c>
       <c r="F6" t="n">
-        <v>677118.1484821043</v>
+        <v>676770.769227748</v>
       </c>
       <c r="G6" t="n">
-        <v>677118.1484821039</v>
+        <v>676770.7692277479</v>
       </c>
       <c r="H6" t="n">
-        <v>677118.1484821043</v>
+        <v>676770.7692277478</v>
       </c>
       <c r="I6" t="n">
-        <v>677118.1484821041</v>
+        <v>676770.7692277477</v>
       </c>
       <c r="J6" t="n">
-        <v>509512.970672122</v>
+        <v>509165.5914177646</v>
       </c>
       <c r="K6" t="n">
-        <v>677118.1484821042</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="L6" t="n">
-        <v>628824.1784739138</v>
+        <v>628476.7992195567</v>
       </c>
       <c r="M6" t="n">
-        <v>592063.1205465927</v>
+        <v>591715.7412922353</v>
       </c>
       <c r="N6" t="n">
-        <v>677118.148482105</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="O6" t="n">
-        <v>677118.1484821042</v>
+        <v>676770.7692277476</v>
       </c>
       <c r="P6" t="n">
-        <v>677118.1484821043</v>
+        <v>676770.7692277475</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973563</v>
@@ -27029,19 +27029,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000383</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973563</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973563</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>78.24864066541289</v>
       </c>
       <c r="C2" t="n">
-        <v>227.7321162278928</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188721</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>216.8034931298452</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>54.31905752307421</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>161.6119125783835</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29.04331421469304</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>148.8788418911088</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>328.3173099230222</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194517</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>114.5784970340425</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>75.90496054965092</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>-1.615775864350108e-12</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,19 +28326,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.268133652481165e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>-1.428518841678921e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>430.4001870301144</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>572.868299221486</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>301.9817606876396</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N18" t="n">
-        <v>288.8958573929167</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744727</v>
+        <v>638.4800548179295</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>338.130958502898</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>308.1572428165614</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33286,7 +33286,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33745,10 +33745,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>467.7715423565662</v>
       </c>
       <c r="N36" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>417.5509096439927</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>302.3396059822672</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L3" t="n">
-        <v>367.7110102589293</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34801,7 +34801,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L6" t="n">
-        <v>313.3230609821995</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8458072502402</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>430.2720547770417</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N18" t="n">
-        <v>157.5541453095834</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524544</v>
+        <v>496.3460208959112</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707382</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>206.7892464195647</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>165.5609983721169</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,10 +37393,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>325.6375084345479</v>
       </c>
       <c r="N36" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>279.7094706696337</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>163.785226202393</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295322</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7540807028593151</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3868361.933436846</v>
+        <v>3870122.46373963</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>304.4852009980677</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>328.6274050762968</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>120.3332554667406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>110.6796476850514</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -913,7 +913,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>246.6994950393312</v>
+        <v>246.6994950393294</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>17.42775815369467</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>103.2588014327192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>329.7760087079218</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>210.6180377869401</v>
+        <v>259.6866654000332</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>86.09789039964346</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.68707741621051</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695604</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.8970375929177</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>394.8580066177514</v>
       </c>
       <c r="F2" t="n">
-        <v>62.9111328033102</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188881</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918767</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657687</v>
+        <v>1171.597178657685</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.457846681875</v>
+        <v>781.4578466818732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143502</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458221</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1098.688737789359</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>977.1399948936617</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>977.1399948936617</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>977.1399948936617</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936617</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2273.220990903994</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>2018.536502698107</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W4" t="n">
-        <v>1729.119332661146</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X4" t="n">
-        <v>1501.129781763129</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1280.337202619599</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1836.104914868962</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="C5" t="n">
-        <v>1467.14239792855</v>
+        <v>1467.142397928548</v>
       </c>
       <c r="D5" t="n">
-        <v>1108.8766993218</v>
+        <v>1108.876699321798</v>
       </c>
       <c r="E5" t="n">
-        <v>723.0884467235553</v>
+        <v>723.0884467235535</v>
       </c>
       <c r="F5" t="n">
-        <v>312.1025419339477</v>
+        <v>312.1025419339459</v>
       </c>
       <c r="G5" t="n">
-        <v>300.4381956986407</v>
+        <v>300.4381956986389</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130042</v>
+        <v>2209.57067313004</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868962</v>
+        <v>1836.10491486896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.104914868962</v>
+        <v>1836.10491486896</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>513.7702631754854</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>363.6536237631497</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>215.7405301807565</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>68.85058268284618</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.144300445488</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1242.727130408528</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678286</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2678.274518176916</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
         <v>66.5121164321834</v>
@@ -5001,13 +5001,13 @@
         <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,31 +5044,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069459</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961553</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1018.438627038652</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>849.5024441107454</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>699.3858046984096</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>551.4727111160165</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>404.5827636181061</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5196,55 +5196,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1938.2863919474</v>
+        <v>1701.202186474818</v>
       </c>
       <c r="W13" t="n">
-        <v>1648.869221910439</v>
+        <v>1411.785016437858</v>
       </c>
       <c r="X13" t="n">
-        <v>1420.879671012422</v>
+        <v>1183.79546553984</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.087091868892</v>
+        <v>963.0028863963103</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5360,22 +5360,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,7 +5527,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,16 +5828,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
         <v>1231.938859683105</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6414,13 +6414,13 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
         <v>1202.091371290588</v>
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,25 +6475,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,19 +6718,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
         <v>1540.888753373307</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7502,7 +7502,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7788,16 +7788,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.9556134883066534</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>79.42624789262538</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>198.4505659076175</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633467.886304915</v>
+        <v>633467.8863049148</v>
       </c>
     </row>
     <row r="6">
@@ -26316,25 +26316,25 @@
         <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977556</v>
@@ -26343,19 +26343,19 @@
         <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744197</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744282</v>
@@ -26444,16 +26444,16 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744335</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744282</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-542695.9673750713</v>
+        <v>-542695.9673750708</v>
       </c>
       <c r="C6" t="n">
-        <v>572055.8162008489</v>
+        <v>572055.8162008487</v>
       </c>
       <c r="D6" t="n">
-        <v>412040.3534528492</v>
+        <v>412040.3534528486</v>
       </c>
       <c r="E6" t="n">
-        <v>351358.3074203922</v>
+        <v>351670.9487493135</v>
       </c>
       <c r="F6" t="n">
-        <v>676770.769227748</v>
+        <v>677083.4105566689</v>
       </c>
       <c r="G6" t="n">
-        <v>676770.7692277479</v>
+        <v>677083.4105566684</v>
       </c>
       <c r="H6" t="n">
-        <v>676770.7692277478</v>
+        <v>677083.4105566689</v>
       </c>
       <c r="I6" t="n">
-        <v>676770.7692277477</v>
+        <v>677083.4105566688</v>
       </c>
       <c r="J6" t="n">
-        <v>509165.5914177646</v>
+        <v>509478.232746686</v>
       </c>
       <c r="K6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.4105566689</v>
       </c>
       <c r="L6" t="n">
-        <v>628476.7992195567</v>
+        <v>628789.4405484782</v>
       </c>
       <c r="M6" t="n">
-        <v>591715.7412922353</v>
+        <v>592028.3826211571</v>
       </c>
       <c r="N6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.410556669</v>
       </c>
       <c r="O6" t="n">
-        <v>676770.7692277476</v>
+        <v>677083.410556669</v>
       </c>
       <c r="P6" t="n">
-        <v>676770.7692277475</v>
+        <v>677083.4105566691</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.24864066541289</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78.24864066541465</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>46.91356563188721</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.0300077039857</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>54.31905752307421</v>
+        <v>54.31905752307594</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>148.8788418911095</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>148.8788418911088</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>52.95783295555873</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194517</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>75.90496054965092</v>
+        <v>26.83633293655777</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.615775864350108e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31849,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>572.868299221486</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>301.9817606876396</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>467.7715423565662</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>755.4040473746011</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M21" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>308.1572428165614</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,16 +33739,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>467.7715423565662</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>753.6188077738268</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>417.5509096439927</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33991,7 +33991,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215496</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844296</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>430.2720547770417</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>161.9999866016181</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>325.6375084345479</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>624.0623352912678</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M21" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>325.6375084345479</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>622.2770956904935</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>279.7094706696337</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
